--- a/similarities/split_global/harmonic_similarity_timestamps_400.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:37.640000', '0:01:51'), ('0:01:47.260000', '0:02:02.720000')]</t>
+          <t>('0:00:36.340000', '0:00:42.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:43.960000', '0:00:47.420000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:41.020000', '0:00:43.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=107.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=36.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=41.02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:11.700000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=30.39']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A:min', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:32.380000', '0:00:46.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:01:35.260000', '0:01:53.640000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=95.26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'F#:min/5', 'B:min'], ['D', 'A', 'B:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'C:min/5', 'F:min'], ['Ab:maj', 'Eb/3', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.697619', '0:00:20.080022'), ('0:00:03.117845', '0:00:09.979342')]</t>
+          <t>('0:00:23.800000', '0:00:54.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:03.261000', '0:02:06.605000'), ('0:00:20.996000', '0:00:24.398000')]</t>
+          <t>('0:00:10.260000', '0:00:24.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=11.697619', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=3.117845']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=123.261', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.590000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:24.400000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:22.589990')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:06.950000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:00:51.641107', '0:00:57.139232')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F#:min/A', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:28.508866', '0:00:32.421428')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:55.820000', '0:01:03.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=28.508866</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=55.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'G#']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:00.620000', '0:01:07.580000')]</t>
+          <t>('0:01:13.300000', '0:01:20.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.032548', '0:00:17.979940')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=60.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=14.032548']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'C:min']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:min', 'F#:min']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:05:12.842000', '0:05:17.997000')]</t>
+          <t>('0:00:58.460000', '0:01:03.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.224693', '0:00:15.343151')]</t>
+          <t>('0:01:10.560000', '0:01:14.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=312.842']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=9.224693']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:00.820000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+          <t>('0:00:34.380000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:07.260000')]</t>
+          <t>('0:00:43.340000', '0:00:47.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:10.220000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:08.260000', '0:01:13.280000')]</t>
+          <t>('0:00:00.700000', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=68.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
